--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0B94C6-E1C7-451D-8647-4E8ACB626DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F67677D-06C4-4345-A20D-41408C1C3C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>24BAI0117</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>RegNumber</t>
+  </si>
+  <si>
+    <t>23BCE0447</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_1" displayName="Table_1" ref="A1:A107" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_1" displayName="Table_1" ref="A1:A108" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
@@ -661,10 +664,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1207,11 @@
         <v>91</v>
       </c>
     </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F67677D-06C4-4345-A20D-41408C1C3C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC4668-EB8C-49DB-B324-34DED8CF37D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>23BKT0033</t>
   </si>
   <si>
-    <t>23mis0079</t>
-  </si>
-  <si>
     <t>23MIS0125</t>
   </si>
   <si>
@@ -334,13 +331,16 @@
     <t>24MIS0216</t>
   </si>
   <si>
-    <t>23bce2327</t>
-  </si>
-  <si>
     <t>RegNumber</t>
   </si>
   <si>
     <t>23BCE0447</t>
+  </si>
+  <si>
+    <t>23BCE2327</t>
+  </si>
+  <si>
+    <t>23MIS0079</t>
   </si>
 </sst>
 </file>
@@ -666,15 +666,15 @@
   </sheetPr>
   <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -909,307 +909,307 @@
     </row>
     <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10221"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC4668-EB8C-49DB-B324-34DED8CF37D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B958A7F-9209-C94D-9690-7743B2D434EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>24BAI0117</t>
   </si>
@@ -341,6 +354,9 @@
   </si>
   <si>
     <t>23MIS0079</t>
+  </si>
+  <si>
+    <t>24BIT0594</t>
   </si>
 </sst>
 </file>
@@ -455,7 +471,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_1" displayName="Table_1" ref="A1:A108" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_1" displayName="Table_1" ref="A1:A109" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
@@ -664,552 +680,557 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
